--- a/测试用例.xlsx
+++ b/测试用例.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="69">
   <si>
     <t>用例编号</t>
   </si>
@@ -38,6 +38,9 @@
     <t>优先级</t>
   </si>
   <si>
+    <t>前置条件</t>
+  </si>
+  <si>
     <t>测试步骤（可见思维导图）</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
     <t>P0</t>
   </si>
   <si>
+    <t xml:space="preserve">                      / </t>
+  </si>
+  <si>
     <t>1.创建“**小组” 2.输入具体队伍人数及类型 3.进入加入界面 4.输入正确的名称.人数及类型</t>
   </si>
   <si>
@@ -74,6 +80,9 @@
     <t>Group-002</t>
   </si>
   <si>
+    <t xml:space="preserve">                      /</t>
+  </si>
+  <si>
     <t>1.创建“**小组” 2.输入具体队伍人数及类型 3.进入加入界面 4.未输入名称.人数及类型</t>
   </si>
   <si>
@@ -122,10 +131,109 @@
     <t>Group-006</t>
   </si>
   <si>
+    <t>随机分组</t>
+  </si>
+  <si>
     <t>P1</t>
   </si>
   <si>
+    <t>已创建团队“1班”，50人，教学,分组名单有6人</t>
+  </si>
+  <si>
+    <t>1.进入“随机分组”界面 2.填写正确的信息 3.输入小于成员数的组数并分组</t>
+  </si>
+  <si>
+    <t>得到随机分组的结果名单</t>
+  </si>
+  <si>
+    <t>1.输入“1班”,50人,教学 2.输入3组 3.得到分组名单,每组2人</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
     <t>Group-007</t>
+  </si>
+  <si>
+    <t>1.进入“随机分组”界面 2.填写正确的信息 3.不输入分组数</t>
+  </si>
+  <si>
+    <t>默认分为两组</t>
+  </si>
+  <si>
+    <t>1.输入“1班”,50人,教学 2.不输入组数 3.得到分组名单,分为两组,每组3人</t>
+  </si>
+  <si>
+    <t>Group-008</t>
+  </si>
+  <si>
+    <t>1.进入“随机分组”界面 2.填写正确的信息 3.输入大于人数的分组数并分组</t>
+  </si>
+  <si>
+    <t>按照组数分组,但会出现空组</t>
+  </si>
+  <si>
+    <t>1.输入“1班”,50人,教学 2.输入7组 3.得到分组名单,分为七组,六个1人组,一个空组</t>
+  </si>
+  <si>
+    <t>Group-009</t>
+  </si>
+  <si>
+    <t>1.进入“随机分组”界面 2.填写正确的信息 3.多次重复操作2</t>
+  </si>
+  <si>
+    <t>名单中出现多个同一名字</t>
+  </si>
+  <si>
+    <t>1.输入“1班”,50人,教学 2.输入姓名lxh并重复多次 3.随机分组名单中出现多个lxh</t>
+  </si>
+  <si>
+    <t>Group-010</t>
+  </si>
+  <si>
+    <t>1.进入“随机分组”界面 2.填写正确的信息 3.输入组数0并分组</t>
+  </si>
+  <si>
+    <t>跳转空白界面</t>
+  </si>
+  <si>
+    <t>1.输入“1班”,50人,教学 2.输入姓名lxh并重复多次 3.跳转空白界面</t>
+  </si>
+  <si>
+    <t>Group-011</t>
+  </si>
+  <si>
+    <t>自由分组</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.进入“自由组队”界面 2.填写正确的信息并提交 3.进入组队界面输入小组名称.团队成员并提交 </t>
+  </si>
+  <si>
+    <t>1.输入“1班”,50人,教学,lxh 2.提交,显示加入队伍成功 3.前往组队界面,输入"第二小组",lxh.hyh并提交</t>
+  </si>
+  <si>
+    <t>Group-012</t>
+  </si>
+  <si>
+    <t>已创建团队“1班”，50人，教学</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.进入“自由组队”界面 2.填写正确的信息并提交 3.进入组队界面输入错误小组名称.团队成员并提交 </t>
+  </si>
+  <si>
+    <t>1.输入“1班”,50人,教学,lxh 2.提交,显示加入队伍成功 3.前往组队界面,输入"第五小组",lxh.hyh并提交</t>
+  </si>
+  <si>
+    <t>Group-013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.进入“自由组队”界面 2.填写错误的信息并提交 3.进入组队界面输入小组名称.团队成员并提交 </t>
+  </si>
+  <si>
+    <t>可以进入组队节目且加入队伍成功</t>
+  </si>
+  <si>
+    <t>1.输入“5班”,50人,教学,lxh 2.提交,显示加入队伍成功 3.前往组队界面,输入"第二小组",lxh.hyh并提交</t>
   </si>
 </sst>
 </file>
@@ -1056,21 +1164,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="4" max="4" width="98.3636363636364" customWidth="1"/>
-    <col min="5" max="5" width="29.7272727272727" customWidth="1"/>
-    <col min="6" max="6" width="92.1818181818182" customWidth="1"/>
+    <col min="4" max="4" width="48.9090909090909" customWidth="1"/>
+    <col min="5" max="5" width="98.3272727272727" customWidth="1"/>
+    <col min="6" max="6" width="34.2727272727273" customWidth="1"/>
+    <col min="7" max="7" width="104" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1092,136 +1201,346 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
+      <c r="G12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
+      <c r="G13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/测试用例.xlsx
+++ b/测试用例.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
   <si>
     <t>用例编号</t>
   </si>
@@ -218,10 +218,13 @@
     <t>已创建团队“1班”，50人，教学</t>
   </si>
   <si>
-    <t xml:space="preserve">1.进入“自由组队”界面 2.填写正确的信息并提交 3.进入组队界面输入错误小组名称.团队成员并提交 </t>
-  </si>
-  <si>
-    <t>1.输入“1班”,50人,教学,lxh 2.提交,显示加入队伍成功 3.前往组队界面,输入"第五小组",lxh.hyh并提交</t>
+    <t xml:space="preserve">1.进入“自由组队”界面 2.填写正确的信息并提交 3.进入组队界面不输入小组名称或团队成员并提交 </t>
+  </si>
+  <si>
+    <t>提示“请填写所有字段”</t>
+  </si>
+  <si>
+    <t>1.输入“1班”,50人,教学,lxh 2.提交,显示加入队伍成功 3.前往组队界面,不输入并提交</t>
   </si>
   <si>
     <t>Group-013</t>
@@ -234,6 +237,12 @@
   </si>
   <si>
     <t>1.输入“5班”,50人,教学,lxh 2.提交,显示加入队伍成功 3.前往组队界面,输入"第二小组",lxh.hyh并提交</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.进入“自由组队”界面 2.漏填信息并提交 </t>
+  </si>
+  <si>
+    <t>1.输入“5班”,50人,教学,lxh 2.提交,显示“请填写所有字段”</t>
   </si>
 </sst>
 </file>
@@ -1164,10 +1173,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1508,10 +1517,10 @@
         <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H13" t="s">
         <v>40</v>
@@ -1519,7 +1528,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -1531,15 +1540,41 @@
         <v>62</v>
       </c>
       <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
         <v>66</v>
       </c>
-      <c r="F14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" t="s">
         <v>40</v>
       </c>
     </row>

--- a/测试用例.xlsx
+++ b/测试用例.xlsx
@@ -233,7 +233,7 @@
     <t xml:space="preserve">1.进入“自由组队”界面 2.填写错误的信息并提交 3.进入组队界面输入小组名称.团队成员并提交 </t>
   </si>
   <si>
-    <t>可以进入组队节目且加入队伍成功</t>
+    <t>可以进入组队界面但加入队伍失败</t>
   </si>
   <si>
     <t>1.输入“5班”,50人,教学,lxh 2.提交,显示加入队伍成功 3.前往组队界面,输入"第二小组",lxh.hyh并提交</t>
@@ -1176,7 +1176,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
